--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2577.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2577.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8902643222455489</v>
+        <v>0.7428028583526611</v>
       </c>
       <c r="B1">
-        <v>1.38782106550817</v>
+        <v>4.568305492401123</v>
       </c>
       <c r="C1">
-        <v>3.305274972072203</v>
+        <v>5.372705459594727</v>
       </c>
       <c r="D1">
-        <v>2.315583689375463</v>
+        <v>1.161709666252136</v>
       </c>
       <c r="E1">
-        <v>0.909863736669416</v>
+        <v>0.6924885511398315</v>
       </c>
     </row>
   </sheetData>
